--- a/Data Files/Deformationfactor.xlsx
+++ b/Data Files/Deformationfactor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab R202a\bin\Matlab Projects\Gear Designer\GD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab R202a\bin\Matlab Projects\Gear Designer\Spur Gear Designer\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
   <si>
     <t>Material1</t>
   </si>
@@ -41,10 +41,16 @@
     <t>Steel</t>
   </si>
   <si>
-    <t>20 full depth</t>
-  </si>
-  <si>
-    <t>20 stub</t>
+    <t>Involute 14.5</t>
+  </si>
+  <si>
+    <t>Full Depth 20</t>
+  </si>
+  <si>
+    <t>Stub 20</t>
+  </si>
+  <si>
+    <t>Tootherror</t>
   </si>
 </sst>
 </file>
@@ -74,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -97,16 +103,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,7 +444,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -410,21 +462,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="E1" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0.08</v>
-      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -433,8 +477,8 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>14.5</v>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="2">
         <v>55</v>
@@ -459,8 +503,8 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
-        <v>14.5</v>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>76</v>
@@ -485,8 +529,8 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>14.5</v>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="2">
         <v>110</v>
@@ -512,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
         <v>57</v>
@@ -538,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>79</v>
@@ -564,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
         <v>114</v>
@@ -590,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
         <v>59</v>
@@ -616,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <v>81</v>
@@ -642,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
         <v>119</v>
@@ -661,6 +705,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Data Files/Deformationfactor.xlsx
+++ b/Data Files/Deformationfactor.xlsx
@@ -80,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,48 +103,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,13 +115,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -453,52 +413,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="2">
-        <v>55</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="2">
-        <v>110</v>
+        <v>0.02</v>
       </c>
       <c r="F2" s="2">
-        <v>220</v>
+        <v>0.04</v>
       </c>
       <c r="G2" s="2">
-        <v>330</v>
+        <v>0.06</v>
       </c>
       <c r="H2" s="2">
-        <v>440</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -507,19 +461,19 @@
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="G3" s="2">
-        <v>456</v>
+        <v>330</v>
       </c>
       <c r="H3" s="2">
-        <v>608</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -527,56 +481,56 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="F4" s="2">
-        <v>440</v>
+        <v>304</v>
       </c>
       <c r="G4" s="2">
-        <v>660</v>
+        <v>456</v>
       </c>
       <c r="H4" s="2">
-        <v>880</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="F5" s="2">
-        <v>228</v>
+        <v>440</v>
       </c>
       <c r="G5" s="2">
-        <v>342</v>
+        <v>660</v>
       </c>
       <c r="H5" s="2">
-        <v>456</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -585,19 +539,19 @@
         <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="F6" s="2">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="G6" s="2">
-        <v>474</v>
+        <v>342</v>
       </c>
       <c r="H6" s="2">
-        <v>632</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -605,56 +559,56 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="F7" s="2">
-        <v>456</v>
+        <v>316</v>
       </c>
       <c r="G7" s="2">
-        <v>684</v>
+        <v>474</v>
       </c>
       <c r="H7" s="2">
-        <v>912</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="F8" s="2">
-        <v>236</v>
+        <v>456</v>
       </c>
       <c r="G8" s="2">
-        <v>354</v>
+        <v>684</v>
       </c>
       <c r="H8" s="2">
-        <v>472</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -663,19 +617,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="F9" s="2">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="G9" s="2">
-        <v>486</v>
+        <v>354</v>
       </c>
       <c r="H9" s="2">
-        <v>648</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -683,30 +637,59 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2">
+        <v>162</v>
+      </c>
+      <c r="F10" s="2">
+        <v>324</v>
+      </c>
+      <c r="G10" s="2">
+        <v>486</v>
+      </c>
+      <c r="H10" s="2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
         <v>119</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>238</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>476</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>714</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>952</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
